--- a/紫杉醇干净的数据.xlsx
+++ b/紫杉醇干净的数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC-O10\Dropbox\云蜚科技\脂质紫杉醇\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0943053F-057D-453E-9714-991992AFC29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2FB9EE-3E97-4363-B570-E06EE822153B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2397,8 +2397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61744109-96EB-46F1-A862-5EB7D366F9C3}">
   <dimension ref="A1:AL101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AK83" sqref="AK83"/>
+    <sheetView tabSelected="1" topLeftCell="T37" workbookViewId="0">
+      <selection activeCell="AJ53" sqref="AJ53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -7524,8 +7524,8 @@
       <c r="AI58">
         <v>1</v>
       </c>
-      <c r="AJ58">
-        <v>20230330</v>
+      <c r="AJ58" s="4">
+        <v>45015</v>
       </c>
       <c r="AK58">
         <v>20230330</v>
